--- a/biology/Zoologie/Anabate_cryptique/Anabate_cryptique.xlsx
+++ b/biology/Zoologie/Anabate_cryptique/Anabate_cryptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cichlocolaptes mazarbarnetti
 L'Anabate cryptique (Cichlocolaptes mazarbarnetti) est une espèce de passereaux de la famille des Furnariidae. Il vit au nord-est du Brésil sur un minuscule territoire dans les états d'Alagoas et du Pernambouc. L'espèce est considérée comme éteinte. Son extinction est principalement due à l'exploitation forestière ainsi qu'à la conversion des forêts en plantations de canne à sucre et en pâturages.
@@ -512,11 +524,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’anabate cryptique a été décrit en 2014, sur la base d'un spécimen collecté en 1986[1].
-L’espèce est considérée éteinte. Le dernier enregistrement date de 2007[1].
-L'espèce n'a été trouvée que sur deux sites dans le nord-est du Brésil : Murici (Alagoas) et la réserve de Pedra d'Anta (Pernambouc)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anabate cryptique a été décrit en 2014, sur la base d'un spécimen collecté en 1986.
+L’espèce est considérée éteinte. Le dernier enregistrement date de 2007.
+L'espèce n'a été trouvée que sur deux sites dans le nord-est du Brésil : Murici (Alagoas) et la réserve de Pedra d'Anta (Pernambouc).
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été trouvée dans l'étage intermédiaire et le sous-couvert de forêts denses et humides avec un sous-étage ouvert en terrain vallonné[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été trouvée dans l'étage intermédiaire et le sous-couvert de forêts denses et humides avec un sous-étage ouvert en terrain vallonné.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apparemment, l’espèce recherche sa nourriture dans les broméliacées arboricoles et a été longtemps confondue avec l'anabate d'Alagoas (Philydor novaesi) qui fréquente les mêmes lieux d’alimentation[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apparemment, l’espèce recherche sa nourriture dans les broméliacées arboricoles et a été longtemps confondue avec l'anabate d'Alagoas (Philydor novaesi) qui fréquente les mêmes lieux d’alimentation.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une importante perte d'habitat s'est produite principalement en raison de l'exploitation forestière, de la conversion en plantations de canne à sucre et en pâturages. laissant de petits fragments isolés. Le site continue d'être menacé par les incendies qui se propagent à partir des plantations adjacentes, la chasse, l'extraction du bois et l'agriculture[4].
-Les broméliacées dont cette espèce dépend ont décliné en raison de l'ouverture accrue des vestiges forestiers fragmentés et des températures élevées causées par la combustion fréquente des déchets de canne à sucre[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une importante perte d'habitat s'est produite principalement en raison de l'exploitation forestière, de la conversion en plantations de canne à sucre et en pâturages. laissant de petits fragments isolés. Le site continue d'être menacé par les incendies qui se propagent à partir des plantations adjacentes, la chasse, l'extraction du bois et l'agriculture.
+Les broméliacées dont cette espèce dépend ont décliné en raison de l'ouverture accrue des vestiges forestiers fragmentés et des températures élevées causées par la combustion fréquente des déchets de canne à sucre.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Article “Bird Conservation in Brazil: Challenges and practical solutions for a key megadiverse country” de Pedro Ferreira Develey, mars 2021.
 Article ”Spix’s Macaw heads list of first bird extinctions confirmed this decade” publié le 5 septembre 2018 sur www.birdlife.org</t>
